--- a/medicine/Pharmacie/Sulfonylurée/Sulfonylurée.xlsx
+++ b/medicine/Pharmacie/Sulfonylurée/Sulfonylurée.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Sulfonylur%C3%A9e</t>
+          <t>Sulfonylurée</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les sulfonylurées sont une classe de composés comportant un groupe sulfonyle lié à un groupe urée (carbamide).
 Ils sont aussi appelés sulfamides hypoglycémiants, et sont une classe d'antidiabétiques utilisés dans le suivi du diabète sucré de type 2. Ils agissent par accroissement de la libération d'insuline par les cellules bêta du pancréas.
-Les sulfonylurées peuvent également avoir une action herbicide, en inhibant l'acétolactate synthase (ALS) responsable de la croissance végétale. Par ingénierie génétique, du soja, du colza, du maïs ou des œillets tolérants aux sulfonylurées ont été créés, certains relevant clairement des OGM [1],[2].
+Les sulfonylurées peuvent également avoir une action herbicide, en inhibant l'acétolactate synthase (ALS) responsable de la croissance végétale. Par ingénierie génétique, du soja, du colza, du maïs ou des œillets tolérants aux sulfonylurées ont été créés, certains relevant clairement des OGM ,.
 </t>
         </is>
       </c>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Sulfonylur%C3%A9e</t>
+          <t>Sulfonylurée</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,14 +525,16 @@
           <t>Molécules de cette classe</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Première génération :
 chlorpropamide (en) ;
 tolbutamide ;
 tolazamide (en).
 Seconde génération :
-glipizide (utilisée dans le diabète de type II)[3] ;
+glipizide (utilisée dans le diabète de type II) ;
 gliclazide (utilisée dans le diabète de type II) ;
 glibenclamide (ou glyburide) (utilisée dans le diabète de type II) ;
 glimépiride (utilisée dans le diabète de type II) ;
@@ -534,7 +548,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Sulfonylur%C3%A9e</t>
+          <t>Sulfonylurée</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -552,7 +566,9 @@
           <t>Chimie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">En ce qui concerne la structure chimique, voir chacun des membres de cette classe pharmaceutique.
 Toutes les sulfonylurées ont un noyau urée central portant deux chaînes : une aromatique de type phényl et l'autre aliphatique linéaire ou cyclique.
@@ -566,7 +582,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Sulfonylur%C3%A9e</t>
+          <t>Sulfonylurée</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -586,10 +602,15 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Mécanisme d'action
-Les sulfonylurées vont agir au niveau de la cellule bêta-pancréatique en inhibant les canaux potassiques ATP-sensibles. La fermeture de ces canaux induit un arrêt du flux sortant d'ions K+ de la cellule, et donc une dépolarisation au niveau de sa membrane. Cette dépolarisation active par la suite des canaux calciques voltage-dépendants, induisant un flux entrant d'ions Ca2+ qui va provoquer l'exocytose des vésicules contenant l'insuline.
+          <t>Mécanisme d'action</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les sulfonylurées vont agir au niveau de la cellule bêta-pancréatique en inhibant les canaux potassiques ATP-sensibles. La fermeture de ces canaux induit un arrêt du flux sortant d'ions K+ de la cellule, et donc une dépolarisation au niveau de sa membrane. Cette dépolarisation active par la suite des canaux calciques voltage-dépendants, induisant un flux entrant d'ions Ca2+ qui va provoquer l'exocytose des vésicules contenant l'insuline.
 Les sulfonylurées stimulent donc la sécrétion d'insuline par les cellules bêta du pancréas.
-Pharmacocinétique</t>
+</t>
         </is>
       </c>
     </row>
@@ -599,7 +620,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Sulfonylur%C3%A9e</t>
+          <t>Sulfonylurée</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -617,9 +638,11 @@
           <t>Utilisations</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elles sont utilisés en deuxième intention dans le traitement du diabète de type 2[4]. Il n'y a, toutefois, aucune preuve de son efficacité quant à la réduction du risque de survenue d'une maladie cardio-vasculaire[5]. Il existe même une suspicion d'augmentation de ce risque[6],[7].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elles sont utilisés en deuxième intention dans le traitement du diabète de type 2. Il n'y a, toutefois, aucune preuve de son efficacité quant à la réduction du risque de survenue d'une maladie cardio-vasculaire. Il existe même une suspicion d'augmentation de ce risque,.
 Elles sont également utilisées en agriculture dans les produits phytosanitaires pour désherber les cultures des monocotylédones et des dicotylédones.
 </t>
         </is>
@@ -631,7 +654,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Sulfonylur%C3%A9e</t>
+          <t>Sulfonylurée</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -649,7 +672,9 @@
           <t>Effets secondaires</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Les sulfonylurées, contrairement à la metformine et les thiazolidinediones, peuvent induire une hypoglycémie, aussi favorisée par la consommation d'alcool, le jeûne ou un exercice physique inhabituel.
 Elles peuvent produire des réactions gastro-intestinales (nausées, vomissements, pesanteur gastrique, sensation de réplétion) et des réactions d'hypersensibilité (démangeaisons, éruptions cutanées, urticaire, exanthème, photosensibilité).
@@ -664,7 +689,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Sulfonylur%C3%A9e</t>
+          <t>Sulfonylurée</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -682,7 +707,9 @@
           <t>Contre-indications</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Insuffisance rénale sévère
 Insuffisance hépatique sévère
@@ -703,7 +730,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Sulfonylur%C3%A9e</t>
+          <t>Sulfonylurée</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -721,7 +748,9 @@
           <t>Interactions médicamenteuses</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>Alcool
 Avec les médicaments contenant du miconazole
@@ -735,7 +764,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Sulfonylur%C3%A9e</t>
+          <t>Sulfonylurée</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -753,9 +782,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La découverte des antidiabétiques oraux remonte à la deuxième moitié du XIXe siècle. L'effet hypoglycémiant de certains sulfamides antibactériens est montré en 1942 par Marcel Janbon à Montpellier et prouvé expérimentalement par Auguste Loubatières[8],[9]
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La découverte des antidiabétiques oraux remonte à la deuxième moitié du XIXe siècle. L'effet hypoglycémiant de certains sulfamides antibactériens est montré en 1942 par Marcel Janbon à Montpellier et prouvé expérimentalement par Auguste Loubatières,
 En 1942, à Montpellier, Janbon et son équipe découvrent les effets hypoglycémiants d'un sulfonamide.
 </t>
         </is>
